--- a/ТестовыйШаблон.xlsx
+++ b/ТестовыйШаблон.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>#НазваниеОтчета</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>#КодыСтолбцов</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -529,7 +532,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2" t="s">
         <v>3</v>

--- a/ТестовыйШаблон.xlsx
+++ b/ТестовыйШаблон.xlsx
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>#НазваниеОтчета</t>
   </si>
   <si>
-    <t>Тест Библиотек расширения</t>
-  </si>
-  <si>
     <t>#Название</t>
   </si>
   <si>
@@ -126,7 +123,25 @@
     <t>#КодыСтолбцов</t>
   </si>
   <si>
-    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+    <t>Очень Важный Отчет</t>
+  </si>
+  <si>
+    <t>#Код</t>
+  </si>
+  <si>
+    <t>#Тег</t>
+  </si>
+  <si>
+    <t>СтатТабл</t>
+  </si>
+  <si>
+    <t>Статическая_Таблица_1</t>
+  </si>
+  <si>
+    <t>ДинамТабл</t>
+  </si>
+  <si>
+    <t>Динамическая_таблица_2</t>
   </si>
 </sst>
 </file>
@@ -146,25 +161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,37 +200,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -495,111 +528,111 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="12" width="9.140625" style="11"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="10.19921875" style="14" customWidth="1"/>
+    <col min="5" max="6" width="10.19921875" style="1" customWidth="1"/>
+    <col min="7" max="12" width="10.19921875" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -632,185 +665,185 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -823,105 +856,114 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="9"/>
-    <col min="2" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="6" width="9.140625" style="9"/>
-    <col min="7" max="12" width="9.140625" style="11"/>
-    <col min="13" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="14.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.46484375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="6.3984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
